--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
@@ -531,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.55477</v>
+        <v>0.3971766666666667</v>
       </c>
       <c r="H2">
-        <v>4.66431</v>
+        <v>1.19153</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4635846666666667</v>
+        <v>0.3208016666666667</v>
       </c>
       <c r="N2">
-        <v>1.390754</v>
+        <v>0.962405</v>
       </c>
       <c r="O2">
-        <v>0.1767302775232392</v>
+        <v>0.1214789480184765</v>
       </c>
       <c r="P2">
-        <v>0.1862343266337822</v>
+        <v>0.1309586095925594</v>
       </c>
       <c r="Q2">
-        <v>0.7207675321933332</v>
+        <v>0.1274149366277778</v>
       </c>
       <c r="R2">
-        <v>6.486907789739999</v>
+        <v>1.14673442965</v>
       </c>
       <c r="S2">
-        <v>0.1767302775232392</v>
+        <v>0.1214789480184765</v>
       </c>
       <c r="T2">
-        <v>0.1862343266337822</v>
+        <v>0.1309586095925594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.55477</v>
+        <v>0.3971766666666667</v>
       </c>
       <c r="H3">
-        <v>4.66431</v>
+        <v>1.19153</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,25 +620,25 @@
         <v>1.735013</v>
       </c>
       <c r="N3">
-        <v>5.205039000000001</v>
+        <v>5.205038999999999</v>
       </c>
       <c r="O3">
-        <v>0.6614311279991166</v>
+        <v>0.6570026777865272</v>
       </c>
       <c r="P3">
-        <v>0.6970010032454159</v>
+        <v>0.7082721622550237</v>
       </c>
       <c r="Q3">
-        <v>2.69754616201</v>
+        <v>0.6891066799633332</v>
       </c>
       <c r="R3">
-        <v>24.27791545809</v>
+        <v>6.201960119669999</v>
       </c>
       <c r="S3">
-        <v>0.6614311279991166</v>
+        <v>0.6570026777865272</v>
       </c>
       <c r="T3">
-        <v>0.6970010032454159</v>
+        <v>0.7082721622550237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.55477</v>
+        <v>0.3971766666666667</v>
       </c>
       <c r="H4">
-        <v>4.66431</v>
+        <v>1.19153</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.022927</v>
+        <v>0.01150933333333333</v>
       </c>
       <c r="N4">
-        <v>0.06878099999999999</v>
+        <v>0.034528</v>
       </c>
       <c r="O4">
-        <v>0.008740356107784635</v>
+        <v>0.004358274444939456</v>
       </c>
       <c r="P4">
-        <v>0.009210387473412386</v>
+        <v>0.004698374252016452</v>
       </c>
       <c r="Q4">
-        <v>0.03564621178999999</v>
+        <v>0.00457123864888889</v>
       </c>
       <c r="R4">
-        <v>0.3208159061099999</v>
+        <v>0.04114114784</v>
       </c>
       <c r="S4">
-        <v>0.008740356107784635</v>
+        <v>0.004358274444939456</v>
       </c>
       <c r="T4">
-        <v>0.009210387473412386</v>
+        <v>0.004698374252016452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.55477</v>
+        <v>0.3971766666666667</v>
       </c>
       <c r="H5">
-        <v>4.66431</v>
+        <v>1.19153</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.401595</v>
+        <v>0.5734764999999999</v>
       </c>
       <c r="N5">
-        <v>0.80319</v>
+        <v>1.146953</v>
       </c>
       <c r="O5">
-        <v>0.1530982383698596</v>
+        <v>0.2171600997500568</v>
       </c>
       <c r="P5">
-        <v>0.1075542826473895</v>
+        <v>0.1560708539004004</v>
       </c>
       <c r="Q5">
-        <v>0.6243878581499999</v>
+        <v>0.2277714846816667</v>
       </c>
       <c r="R5">
-        <v>3.746327148899999</v>
+        <v>1.36662890809</v>
       </c>
       <c r="S5">
-        <v>0.1530982383698596</v>
+        <v>0.2171600997500568</v>
       </c>
       <c r="T5">
-        <v>0.1075542826473895</v>
+        <v>0.1560708539004004</v>
       </c>
     </row>
   </sheetData>
